--- a/Parte 2/Dados/bloco_rampa.xlsx
+++ b/Parte 2/Dados/bloco_rampa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26c96ee5941d8100/USP/3_Semestre/MAC0209/EP1/MAC0209-EP1/Parte 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26c96ee5941d8100/USP/3_Semestre/MAC0209/EP1/MAC0209-EP1/Parte 2/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="483" documentId="8_{CC4223DC-985D-49C7-BAC9-916EC20BBDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328AA9A9-C057-4345-B432-00ECACD6680A}"/>
+  <xr:revisionPtr revIDLastSave="563" documentId="8_{CC4223DC-985D-49C7-BAC9-916EC20BBDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3D9B67-DD7A-484A-A2B6-C1EA258C4042}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>Experimento 1</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Resultados do experimento</t>
   </si>
   <si>
-    <t>Massa (g)</t>
-  </si>
-  <si>
     <t>Altura (cm)</t>
   </si>
   <si>
@@ -110,17 +107,32 @@
   <si>
     <t>Experimento 7</t>
   </si>
+  <si>
+    <t>Cinético</t>
+  </si>
+  <si>
+    <t>Estático</t>
+  </si>
+  <si>
+    <t>Massa (kg)</t>
+  </si>
+  <si>
+    <t>Atrito</t>
+  </si>
+  <si>
+    <t>Frequência</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -184,6 +196,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -217,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -445,11 +473,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -463,44 +502,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,15 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -533,22 +530,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -560,45 +557,289 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="58">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -615,7 +856,171 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -646,7 +1051,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -702,13 +1107,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -734,6 +1132,13 @@
         <name val="Arial"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -779,7 +1184,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -810,7 +1215,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -866,13 +1271,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -898,6 +1296,13 @@
         <name val="Arial"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -943,7 +1348,171 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -974,7 +1543,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1030,13 +1599,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1064,99 +1626,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1178,221 +1648,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="#,##0.000"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#,##0.000"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Arial"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1467,76 +1722,9 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1553,6 +1741,59 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1573,88 +1814,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73A78A46-A924-4579-9890-5F61199F6EAF}" name="Tabela1" displayName="Tabela1" ref="B6:C10" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="45" tableBorderDxfId="46" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73A78A46-A924-4579-9890-5F61199F6EAF}" name="Tabela1" displayName="Tabela1" ref="B6:C10" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="B6:C10" xr:uid="{73A78A46-A924-4579-9890-5F61199F6EAF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F8ADC237-5D6C-4B3B-8891-C2F741525895}" name="Característica" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{E13526D7-ABD0-4F5E-9615-A9CA29645F86}" name="Valor" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{F8ADC237-5D6C-4B3B-8891-C2F741525895}" name="Característica" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{E13526D7-ABD0-4F5E-9615-A9CA29645F86}" name="Valor" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F370C04C-DD54-4A99-9546-5A7EA8233317}" name="Tabela2" displayName="Tabela2" ref="E7:G20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F370C04C-DD54-4A99-9546-5A7EA8233317}" name="Tabela2" displayName="Tabela2" ref="E7:G20" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="E7:G20" xr:uid="{F370C04C-DD54-4A99-9546-5A7EA8233317}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E8:G20">
     <sortCondition ref="E7:E20"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{817AA3B3-A09D-4EF1-9F2E-835111DA609D}" name="Índice" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E2C67225-9337-4919-9C79-CB25A7558212}" name="Tempo" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{D6FB79D6-ADEB-466B-975F-71BBB6834FD2}" name="Posição" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{817AA3B3-A09D-4EF1-9F2E-835111DA609D}" name="Índice" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{E2C67225-9337-4919-9C79-CB25A7558212}" name="Tempo" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{D6FB79D6-ADEB-466B-975F-71BBB6834FD2}" name="Posição" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10FD8E18-98F6-4F8A-BABC-A000E05F5FA4}" name="Tabela3" displayName="Tabela3" ref="M7:O20" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowBorderDxfId="39" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10FD8E18-98F6-4F8A-BABC-A000E05F5FA4}" name="Tabela3" displayName="Tabela3" ref="M7:O20" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="M7:O20" xr:uid="{10FD8E18-98F6-4F8A-BABC-A000E05F5FA4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M8:O20">
     <sortCondition ref="M7:M20"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{53E0F15D-8DED-4610-BA57-02015BB7290A}" name="Índice" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{04FA24B6-3F33-44A8-A97B-ACC224334E61}" name="Tempo" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{CFDE9BAD-7CCD-4072-B597-7DF4EDBEBE94}" name="Posição" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{53E0F15D-8DED-4610-BA57-02015BB7290A}" name="Índice" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{04FA24B6-3F33-44A8-A97B-ACC224334E61}" name="Tempo" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{CFDE9BAD-7CCD-4072-B597-7DF4EDBEBE94}" name="Posição" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{324275D5-56CB-4964-B435-A1F0D3012AB4}" name="Tabela4" displayName="Tabela4" ref="Q7:S23" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="38" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{324275D5-56CB-4964-B435-A1F0D3012AB4}" name="Tabela4" displayName="Tabela4" ref="Q7:S23" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="Q7:S23" xr:uid="{324275D5-56CB-4964-B435-A1F0D3012AB4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q8:S23">
     <sortCondition ref="Q7:Q23"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D407C375-DF2D-4CAD-97A3-0098BB228A49}" name="Índice" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{5F3059D9-DD1F-4456-B447-CDDDA8F69B86}" name="Tempo" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{751C4506-558B-4159-BAE5-5BEAD85C15D7}" name="Posição" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{D407C375-DF2D-4CAD-97A3-0098BB228A49}" name="Índice" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5F3059D9-DD1F-4456-B447-CDDDA8F69B86}" name="Tempo" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{751C4506-558B-4159-BAE5-5BEAD85C15D7}" name="Posição" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{851FACAF-45C1-4A57-8B9C-05D4D2730BD5}" name="Tabela26" displayName="Tabela26" ref="I7:K17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{851FACAF-45C1-4A57-8B9C-05D4D2730BD5}" name="Tabela26" displayName="Tabela26" ref="I7:K17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="I7:K17" xr:uid="{851FACAF-45C1-4A57-8B9C-05D4D2730BD5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I8:K17">
     <sortCondition ref="I7:I17"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6C81BF53-7ACE-42EC-A44D-544A49355866}" name="Índice" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{19B21923-A420-441E-B90B-C14DD0529EC5}" name="Tempo" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{82040070-F8B7-400C-B53B-4CE9812EA28B}" name="Posição" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{6C81BF53-7ACE-42EC-A44D-544A49355866}" name="Índice" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{19B21923-A420-441E-B90B-C14DD0529EC5}" name="Tempo" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{82040070-F8B7-400C-B53B-4CE9812EA28B}" name="Posição" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC7352A2-BE97-4A6C-A9E1-E17D358EC216}" name="Tabela47" displayName="Tabela47" ref="U7:W20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC7352A2-BE97-4A6C-A9E1-E17D358EC216}" name="Tabela47" displayName="Tabela47" ref="U7:W20" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="U7:W20" xr:uid="{AC7352A2-BE97-4A6C-A9E1-E17D358EC216}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U8:W20">
     <sortCondition ref="U7:U20"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4A2450A4-8DE3-47F4-87FD-536B36FA75C5}" name="Índice" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{073C50B4-8B11-44F8-AD26-823C071124D4}" name="Tempo" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{3AEB4F45-7402-47F2-B027-1F0A82783741}" name="Posição" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4A2450A4-8DE3-47F4-87FD-536B36FA75C5}" name="Índice" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{073C50B4-8B11-44F8-AD26-823C071124D4}" name="Tempo" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3AEB4F45-7402-47F2-B027-1F0A82783741}" name="Posição" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0EEF875D-95AE-4ACD-85BA-45A6EC0C78C0}" name="Tabela7" displayName="Tabela7" ref="B14:C19" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="B14:C19" xr:uid="{0EEF875D-95AE-4ACD-85BA-45A6EC0C78C0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F624ECCE-44BF-418C-8DBF-94BFECE11FC0}" name="Frequência" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{835B37EF-3836-43EB-AA97-DF2721F2F841}" name="Valor" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F4D0B40F-B0BF-4B89-99BE-E0C6DBAE92C2}" name="Tabela8" displayName="Tabela8" ref="B21:C26" totalsRowShown="0" headerRowBorderDxfId="0" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B21:C26" xr:uid="{F4D0B40F-B0BF-4B89-99BE-E0C6DBAE92C2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{32F0D679-FD92-43A6-9CAC-DAAC1E15033B}" name="Frequência" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{95B8F6A5-73FA-446F-80A4-DCB781AC7D13}" name="Valor" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1862,7 +2125,7 @@
   <dimension ref="A1:AF975"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1882,3458 +2145,3449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
     </row>
     <row r="2" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="M2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="M2" s="10" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="36"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="M3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="9">
+        <v>16.3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>48.6</v>
+      </c>
+      <c r="G5" s="27">
+        <f>ATAN(E5/F5)*180/PI()</f>
+        <v>18.540986541795807</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="9">
+        <v>18.5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>48.6</v>
+      </c>
+      <c r="K5" s="27">
+        <f>ATAN(I5/J5)*180/PI()</f>
+        <v>20.839749214080893</v>
+      </c>
+      <c r="M5" s="9">
+        <v>12.7</v>
+      </c>
+      <c r="N5" s="9">
+        <v>48.6</v>
+      </c>
+      <c r="O5" s="27">
+        <f>ATAN(M5/N5)*180/PI()</f>
+        <v>14.644867194730461</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R5" s="9">
+        <v>48.6</v>
+      </c>
+      <c r="S5" s="27">
+        <f>ATAN(Q5/R5)*180/PI()</f>
+        <v>11.853004167743999</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="9">
+        <v>14.1</v>
+      </c>
+      <c r="V5" s="9">
+        <v>48.6</v>
+      </c>
+      <c r="W5" s="27">
+        <f>ATAN(U5/V5)*180/PI()</f>
+        <v>16.178683616279667</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+    </row>
+    <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="M6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+    </row>
+    <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+    </row>
+    <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="G8" s="31">
+        <v>19.2</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>4.6710000000000003</v>
+      </c>
+      <c r="K8" s="16">
+        <v>19.2</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+      <c r="N8" s="18">
+        <v>11.912000000000001</v>
+      </c>
+      <c r="O8" s="19">
+        <v>19.2</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="17">
+        <v>1</v>
+      </c>
+      <c r="R8" s="18">
+        <v>2.169</v>
+      </c>
+      <c r="S8" s="20">
+        <v>19.2</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="17">
+        <v>1</v>
+      </c>
+      <c r="V8" s="32">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="W8" s="33">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+    </row>
+    <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2.79</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="G9" s="28">
+        <v>19.2</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="15">
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="K9" s="16">
+        <v>19.3</v>
+      </c>
+      <c r="M9" s="17">
+        <v>2</v>
+      </c>
+      <c r="N9" s="18">
+        <v>11.945</v>
+      </c>
+      <c r="O9" s="19">
+        <v>19.3</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="17">
+        <v>2</v>
+      </c>
+      <c r="R9" s="18">
+        <v>2.202</v>
+      </c>
+      <c r="S9" s="20">
+        <v>19.2</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="17">
+        <v>2</v>
+      </c>
+      <c r="V9" s="18">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="W9" s="20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+    </row>
+    <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="22">
+        <v>3.63</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15">
+        <v>9.9999999899999997E-2</v>
+      </c>
+      <c r="G10" s="28">
+        <v>19.2</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9">
+        <v>3</v>
+      </c>
+      <c r="J10" s="15">
+        <v>4.7380000000000004</v>
+      </c>
+      <c r="K10" s="16">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M10" s="17">
+        <v>3</v>
+      </c>
+      <c r="N10" s="18">
+        <v>11.978999999999999</v>
+      </c>
+      <c r="O10" s="19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="17">
+        <v>3</v>
+      </c>
+      <c r="R10" s="18">
+        <v>2.2360000000000002</v>
+      </c>
+      <c r="S10" s="20">
+        <v>19.3</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="17">
+        <v>3</v>
+      </c>
+      <c r="V10" s="18">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="W10" s="20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9">
         <v>4</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10" t="s">
+      <c r="F11" s="15">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G11" s="28">
+        <v>19.3</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="9">
+        <v>4</v>
+      </c>
+      <c r="J11" s="15">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="K11" s="16">
+        <v>19.7</v>
+      </c>
+      <c r="M11" s="17">
+        <v>4</v>
+      </c>
+      <c r="N11" s="18">
+        <v>12.012</v>
+      </c>
+      <c r="O11" s="19">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="17">
+        <v>4</v>
+      </c>
+      <c r="R11" s="18">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="S11" s="20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="17">
+        <v>4</v>
+      </c>
+      <c r="V11" s="18">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="W11" s="20">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+    </row>
+    <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="G12" s="28">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9">
+        <v>5</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="K12" s="16">
+        <v>20.3</v>
+      </c>
+      <c r="M12" s="17">
+        <v>5</v>
+      </c>
+      <c r="N12" s="18">
+        <v>12.045</v>
+      </c>
+      <c r="O12" s="19">
+        <v>20</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="17">
+        <v>5</v>
+      </c>
+      <c r="R12" s="18">
+        <v>2.302</v>
+      </c>
+      <c r="S12" s="20">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="17">
+        <v>5</v>
+      </c>
+      <c r="V12" s="18">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="W12" s="20">
+        <v>19.8</v>
+      </c>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+    </row>
+    <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="10" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9">
+        <v>6</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="G13" s="28">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9">
+        <v>6</v>
+      </c>
+      <c r="J13" s="15">
+        <v>4.8380000000000001</v>
+      </c>
+      <c r="K13" s="16">
+        <v>20.9</v>
+      </c>
+      <c r="M13" s="23">
+        <v>6</v>
+      </c>
+      <c r="N13" s="18">
+        <v>12.079000000000001</v>
+      </c>
+      <c r="O13" s="19">
+        <v>20.3</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="23">
+        <v>6</v>
+      </c>
+      <c r="R13" s="18">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="S13" s="26">
+        <v>19.8</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="23">
+        <v>6</v>
+      </c>
+      <c r="V13" s="18">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="W13" s="20">
+        <v>20.2</v>
+      </c>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+    </row>
+    <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9">
+        <v>7</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="G14" s="28">
+        <v>20.6</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="9">
+        <v>7</v>
+      </c>
+      <c r="J14" s="15">
+        <v>4.8719999999999999</v>
+      </c>
+      <c r="K14" s="28">
+        <v>21.6</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="17">
+        <v>7</v>
+      </c>
+      <c r="N14" s="18">
+        <v>12.112</v>
+      </c>
+      <c r="O14" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="17">
+        <v>7</v>
+      </c>
+      <c r="R14" s="18">
+        <v>2.3690000000000002</v>
+      </c>
+      <c r="S14" s="20">
+        <v>20</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="17">
+        <v>7</v>
+      </c>
+      <c r="V14" s="18">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="W14" s="20">
+        <v>20.7</v>
+      </c>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+    </row>
+    <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="49">
+        <v>2</v>
+      </c>
+      <c r="C15" s="50">
+        <v>0.17</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9">
+        <v>8</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="G15" s="28">
+        <v>21.3</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9">
+        <v>8</v>
+      </c>
+      <c r="J15" s="15">
+        <v>4.9050000000000002</v>
+      </c>
+      <c r="K15" s="28">
+        <v>22.8</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="17">
+        <v>8</v>
+      </c>
+      <c r="N15" s="18">
+        <v>12.145</v>
+      </c>
+      <c r="O15" s="19">
+        <v>21.4</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="17">
+        <v>8</v>
+      </c>
+      <c r="R15" s="18">
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="S15" s="20">
+        <v>20.3</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="17">
+        <v>8</v>
+      </c>
+      <c r="V15" s="18">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="W15" s="20">
+        <v>21.3</v>
+      </c>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="49">
+        <v>7</v>
+      </c>
+      <c r="C16" s="50">
+        <v>0.19</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9">
+        <v>9</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="G16" s="28">
+        <v>22.3</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9">
+        <v>9</v>
+      </c>
+      <c r="J16" s="15">
+        <v>4.9379999999999997</v>
+      </c>
+      <c r="K16" s="28">
+        <v>24.2</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="17">
+        <v>9</v>
+      </c>
+      <c r="N16" s="18">
+        <v>12.179</v>
+      </c>
+      <c r="O16" s="19">
+        <v>22</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="17">
+        <v>9</v>
+      </c>
+      <c r="R16" s="18">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="S16" s="20">
+        <v>20.7</v>
+      </c>
+      <c r="U16" s="17">
+        <v>9</v>
+      </c>
+      <c r="V16" s="18">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="W16" s="20">
+        <v>21.9</v>
+      </c>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="49">
+        <v>1</v>
+      </c>
+      <c r="C17" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9">
+        <v>10</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G17" s="28">
+        <v>23.3</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="9">
+        <v>10</v>
+      </c>
+      <c r="J17" s="29">
+        <v>4.9720000000000004</v>
+      </c>
+      <c r="K17" s="30">
+        <v>25.7</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="17">
+        <v>10</v>
+      </c>
+      <c r="N17" s="18">
+        <v>12.212</v>
+      </c>
+      <c r="O17" s="19">
+        <v>22.7</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="17">
+        <v>10</v>
+      </c>
+      <c r="R17" s="18">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="S17" s="20">
+        <v>21</v>
+      </c>
+      <c r="U17" s="23">
+        <v>10</v>
+      </c>
+      <c r="V17" s="18">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="W17" s="20">
+        <v>22.8</v>
+      </c>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+    </row>
+    <row r="18" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="49">
+        <v>1</v>
+      </c>
+      <c r="C18" s="50">
+        <v>0.23</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9">
+        <v>11</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.36666666666666597</v>
+      </c>
+      <c r="G18" s="28">
+        <v>24.4</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="17">
+        <v>11</v>
+      </c>
+      <c r="N18" s="24">
+        <v>12.246</v>
+      </c>
+      <c r="O18" s="25">
+        <v>23.5</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="17">
+        <v>11</v>
+      </c>
+      <c r="R18" s="18">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="S18" s="20">
+        <v>21.4</v>
+      </c>
+      <c r="U18" s="17">
+        <v>11</v>
+      </c>
+      <c r="V18" s="24">
+        <v>1.034</v>
+      </c>
+      <c r="W18" s="26">
+        <v>23.2</v>
+      </c>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+    </row>
+    <row r="19" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="55">
+        <f>SUM(B15:B18)</f>
+        <v>11</v>
+      </c>
+      <c r="C19" s="56">
+        <f>(B15*C15+B16*C16+B17*C17+C18*B18)/B19</f>
+        <v>0.19181818181818186</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9">
+        <v>12</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="G19" s="28">
+        <v>25.7</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="23">
+        <v>12</v>
+      </c>
+      <c r="N19" s="18">
+        <v>12.279</v>
+      </c>
+      <c r="O19" s="19">
+        <v>24.4</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="23">
+        <v>12</v>
+      </c>
+      <c r="R19" s="18">
+        <v>2.536</v>
+      </c>
+      <c r="S19" s="20">
+        <v>21.9</v>
+      </c>
+      <c r="U19" s="17">
+        <v>12</v>
+      </c>
+      <c r="V19" s="18">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="W19" s="20">
+        <v>24.8</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+    </row>
+    <row r="20" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="G20" s="16">
+        <v>27.4</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="17">
+        <v>13</v>
+      </c>
+      <c r="N20" s="24">
+        <v>12.311999999999999</v>
+      </c>
+      <c r="O20" s="25">
+        <v>25.4</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="17">
+        <v>13</v>
+      </c>
+      <c r="R20" s="18">
+        <v>2.569</v>
+      </c>
+      <c r="S20" s="20">
+        <v>22.4</v>
+      </c>
+      <c r="U20" s="17">
+        <v>13</v>
+      </c>
+      <c r="V20" s="18">
+        <v>1.101</v>
+      </c>
+      <c r="W20" s="20">
+        <v>25.9</v>
+      </c>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+    </row>
+    <row r="21" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="17">
+        <v>14</v>
+      </c>
+      <c r="R21" s="18">
+        <v>2.6030000000000002</v>
+      </c>
+      <c r="S21" s="20">
+        <v>22.9</v>
+      </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+    </row>
+    <row r="22" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="49">
+        <v>2</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="17">
+        <v>15</v>
+      </c>
+      <c r="R22" s="18">
+        <v>2.6360000000000001</v>
+      </c>
+      <c r="S22" s="20">
+        <v>23.4</v>
+      </c>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+    </row>
+    <row r="23" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="49">
+        <v>5</v>
+      </c>
+      <c r="C23" s="50">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="23">
+        <v>16</v>
+      </c>
+      <c r="R23" s="18">
+        <v>2.669</v>
+      </c>
+      <c r="S23" s="26">
+        <v>24</v>
+      </c>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+    </row>
+    <row r="24" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="49">
         <v>3</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-    </row>
-    <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="13" t="s">
+      <c r="C24" s="51">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="5"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+    </row>
+    <row r="25" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="49">
+        <v>1</v>
+      </c>
+      <c r="C25" s="51">
+        <v>0.375</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="5"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+    </row>
+    <row r="26" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="55">
+        <f>SUM(B22:B25)</f>
         <v>11</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="M3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-    </row>
-    <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-    </row>
-    <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="20">
-        <v>16.3</v>
-      </c>
-      <c r="F5" s="20">
-        <v>50</v>
-      </c>
-      <c r="G5" s="42">
-        <f>ATAN(E5/F5)*180/PI()</f>
-        <v>18.055968436148483</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="20">
-        <v>18.5</v>
-      </c>
-      <c r="J5" s="20">
-        <v>50</v>
-      </c>
-      <c r="K5" s="42">
-        <f>ATAN(I5/J5)*180/PI()</f>
-        <v>20.304473709960437</v>
-      </c>
-      <c r="M5" s="20">
-        <v>12.7</v>
-      </c>
-      <c r="N5" s="20">
-        <v>50</v>
-      </c>
-      <c r="O5" s="42">
-        <f>ATAN(M5/N5)*180/PI()</f>
-        <v>14.251741387398493</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="20">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="R5" s="20">
-        <v>50</v>
-      </c>
-      <c r="S5" s="42">
-        <f>ATAN(Q5/R5)*180/PI()</f>
-        <v>11.530130388801783</v>
-      </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="20">
-        <v>14.1</v>
-      </c>
-      <c r="V5" s="20">
-        <v>50</v>
-      </c>
-      <c r="W5" s="42">
-        <f>ATAN(U5/V5)*180/PI()</f>
-        <v>15.748451902991764</v>
-      </c>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-    </row>
-    <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="M6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-    </row>
-    <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="25">
-        <v>380.7</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-    </row>
-    <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="25">
-        <v>7.6</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="29">
-        <v>3.3333333333333298E-2</v>
-      </c>
-      <c r="G8" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="20">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29">
-        <v>4.6710000000000003</v>
-      </c>
-      <c r="K8" s="30">
-        <v>19.2</v>
-      </c>
-      <c r="M8" s="31">
-        <v>1</v>
-      </c>
-      <c r="N8" s="32">
-        <v>11.912000000000001</v>
-      </c>
-      <c r="O8" s="33">
-        <v>19.2</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="31">
-        <v>1</v>
-      </c>
-      <c r="R8" s="32">
-        <v>2.169</v>
-      </c>
-      <c r="S8" s="34">
-        <v>19.2</v>
-      </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="31">
-        <v>1</v>
-      </c>
-      <c r="V8" s="47">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="W8" s="48">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-    </row>
-    <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="25">
-        <v>2.79</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="20">
-        <v>2</v>
-      </c>
-      <c r="F9" s="29">
-        <v>6.6666666666666596E-2</v>
-      </c>
-      <c r="G9" s="43">
-        <v>19.2</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="20">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29">
-        <v>4.7050000000000001</v>
-      </c>
-      <c r="K9" s="30">
-        <v>19.3</v>
-      </c>
-      <c r="M9" s="31">
-        <v>2</v>
-      </c>
-      <c r="N9" s="32">
-        <v>11.945</v>
-      </c>
-      <c r="O9" s="33">
-        <v>19.3</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="31">
-        <v>2</v>
-      </c>
-      <c r="R9" s="32">
-        <v>2.202</v>
-      </c>
-      <c r="S9" s="34">
-        <v>19.2</v>
-      </c>
-      <c r="T9" s="18"/>
-      <c r="U9" s="31">
-        <v>2</v>
-      </c>
-      <c r="V9" s="32">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="W9" s="34">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-    </row>
-    <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="36">
-        <v>3.63</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="20">
-        <v>3</v>
-      </c>
-      <c r="F10" s="29">
-        <v>9.9999999899999997E-2</v>
-      </c>
-      <c r="G10" s="43">
-        <v>19.2</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="20">
-        <v>3</v>
-      </c>
-      <c r="J10" s="29">
-        <v>4.7380000000000004</v>
-      </c>
-      <c r="K10" s="30">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="M10" s="31">
-        <v>3</v>
-      </c>
-      <c r="N10" s="32">
-        <v>11.978999999999999</v>
-      </c>
-      <c r="O10" s="33">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="31">
-        <v>3</v>
-      </c>
-      <c r="R10" s="32">
-        <v>2.2360000000000002</v>
-      </c>
-      <c r="S10" s="34">
-        <v>19.3</v>
-      </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="31">
-        <v>3</v>
-      </c>
-      <c r="V10" s="32">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="W10" s="34">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-    </row>
-    <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="20">
-        <v>4</v>
-      </c>
-      <c r="F11" s="29">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="G11" s="43">
-        <v>19.3</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="20">
-        <v>4</v>
-      </c>
-      <c r="J11" s="29">
-        <v>4.7709999999999999</v>
-      </c>
-      <c r="K11" s="30">
-        <v>19.7</v>
-      </c>
-      <c r="M11" s="31">
-        <v>4</v>
-      </c>
-      <c r="N11" s="32">
-        <v>12.012</v>
-      </c>
-      <c r="O11" s="33">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="31">
-        <v>4</v>
-      </c>
-      <c r="R11" s="32">
-        <v>2.2690000000000001</v>
-      </c>
-      <c r="S11" s="34">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="T11" s="41"/>
-      <c r="U11" s="31">
-        <v>4</v>
-      </c>
-      <c r="V11" s="32">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="W11" s="34">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-    </row>
-    <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="20">
-        <v>5</v>
-      </c>
-      <c r="F12" s="29">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="G12" s="43">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="20">
-        <v>5</v>
-      </c>
-      <c r="J12" s="29">
-        <v>4.8049999999999997</v>
-      </c>
-      <c r="K12" s="30">
-        <v>20.3</v>
-      </c>
-      <c r="M12" s="31">
-        <v>5</v>
-      </c>
-      <c r="N12" s="32">
-        <v>12.045</v>
-      </c>
-      <c r="O12" s="33">
-        <v>20</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="31">
-        <v>5</v>
-      </c>
-      <c r="R12" s="32">
-        <v>2.302</v>
-      </c>
-      <c r="S12" s="34">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="31">
-        <v>5</v>
-      </c>
-      <c r="V12" s="32">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="W12" s="34">
-        <v>19.8</v>
-      </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-    </row>
-    <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="20">
-        <v>6</v>
-      </c>
-      <c r="F13" s="29">
-        <v>0.19999999999999901</v>
-      </c>
-      <c r="G13" s="43">
-        <v>20</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="20">
-        <v>6</v>
-      </c>
-      <c r="J13" s="29">
-        <v>4.8380000000000001</v>
-      </c>
-      <c r="K13" s="30">
-        <v>20.9</v>
-      </c>
-      <c r="M13" s="37">
-        <v>6</v>
-      </c>
-      <c r="N13" s="32">
-        <v>12.079000000000001</v>
-      </c>
-      <c r="O13" s="33">
-        <v>20.3</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="37">
-        <v>6</v>
-      </c>
-      <c r="R13" s="32">
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="S13" s="40">
-        <v>19.8</v>
-      </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="37">
-        <v>6</v>
-      </c>
-      <c r="V13" s="32">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="W13" s="34">
-        <v>20.2</v>
-      </c>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-    </row>
-    <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20">
-        <v>7</v>
-      </c>
-      <c r="F14" s="29">
-        <v>0.233333333333333</v>
-      </c>
-      <c r="G14" s="43">
-        <v>20.6</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="20">
-        <v>7</v>
-      </c>
-      <c r="J14" s="29">
-        <v>4.8719999999999999</v>
-      </c>
-      <c r="K14" s="43">
-        <v>21.6</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="31">
-        <v>7</v>
-      </c>
-      <c r="N14" s="32">
-        <v>12.112</v>
-      </c>
-      <c r="O14" s="33">
-        <v>20.9</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="31">
-        <v>7</v>
-      </c>
-      <c r="R14" s="32">
-        <v>2.3690000000000002</v>
-      </c>
-      <c r="S14" s="34">
-        <v>20</v>
-      </c>
-      <c r="T14" s="18"/>
-      <c r="U14" s="31">
-        <v>7</v>
-      </c>
-      <c r="V14" s="32">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="W14" s="34">
-        <v>20.7</v>
-      </c>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-    </row>
-    <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="20">
-        <v>8</v>
-      </c>
-      <c r="F15" s="29">
-        <v>0.266666666666666</v>
-      </c>
-      <c r="G15" s="43">
-        <v>21.3</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20">
-        <v>8</v>
-      </c>
-      <c r="J15" s="29">
-        <v>4.9050000000000002</v>
-      </c>
-      <c r="K15" s="43">
-        <v>22.8</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="31">
-        <v>8</v>
-      </c>
-      <c r="N15" s="32">
-        <v>12.145</v>
-      </c>
-      <c r="O15" s="33">
-        <v>21.4</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="31">
-        <v>8</v>
-      </c>
-      <c r="R15" s="32">
-        <v>2.4020000000000001</v>
-      </c>
-      <c r="S15" s="34">
-        <v>20.3</v>
-      </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="31">
-        <v>8</v>
-      </c>
-      <c r="V15" s="32">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="W15" s="34">
-        <v>21.3</v>
-      </c>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-    </row>
-    <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20">
-        <v>9</v>
-      </c>
-      <c r="F16" s="29">
-        <v>0.29999999999999899</v>
-      </c>
-      <c r="G16" s="43">
-        <v>22.3</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="20">
-        <v>9</v>
-      </c>
-      <c r="J16" s="29">
-        <v>4.9379999999999997</v>
-      </c>
-      <c r="K16" s="43">
-        <v>24.2</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="31">
-        <v>9</v>
-      </c>
-      <c r="N16" s="32">
-        <v>12.179</v>
-      </c>
-      <c r="O16" s="33">
-        <v>22</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="31">
-        <v>9</v>
-      </c>
-      <c r="R16" s="32">
-        <v>2.4359999999999999</v>
-      </c>
-      <c r="S16" s="34">
-        <v>20.7</v>
-      </c>
-      <c r="U16" s="31">
-        <v>9</v>
-      </c>
-      <c r="V16" s="32">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="W16" s="34">
-        <v>21.9</v>
-      </c>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-    </row>
-    <row r="17" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20">
-        <v>10</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="G17" s="43">
-        <v>23.3</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="20">
-        <v>10</v>
-      </c>
-      <c r="J17" s="44">
-        <v>4.9720000000000004</v>
-      </c>
-      <c r="K17" s="45">
-        <v>25.7</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="31">
-        <v>10</v>
-      </c>
-      <c r="N17" s="32">
-        <v>12.212</v>
-      </c>
-      <c r="O17" s="33">
-        <v>22.7</v>
-      </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="31">
-        <v>10</v>
-      </c>
-      <c r="R17" s="32">
-        <v>2.4689999999999999</v>
-      </c>
-      <c r="S17" s="34">
-        <v>21</v>
-      </c>
-      <c r="U17" s="37">
-        <v>10</v>
-      </c>
-      <c r="V17" s="32">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="W17" s="34">
-        <v>22.8</v>
-      </c>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-    </row>
-    <row r="18" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20">
-        <v>11</v>
-      </c>
-      <c r="F18" s="29">
-        <v>0.36666666666666597</v>
-      </c>
-      <c r="G18" s="43">
-        <v>24.4</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="31">
-        <v>11</v>
-      </c>
-      <c r="N18" s="38">
-        <v>12.246</v>
-      </c>
-      <c r="O18" s="39">
-        <v>23.5</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="31">
-        <v>11</v>
-      </c>
-      <c r="R18" s="32">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="S18" s="34">
-        <v>21.4</v>
-      </c>
-      <c r="U18" s="31">
-        <v>11</v>
-      </c>
-      <c r="V18" s="38">
-        <v>1.034</v>
-      </c>
-      <c r="W18" s="40">
-        <v>23.2</v>
-      </c>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-    </row>
-    <row r="19" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="20">
-        <v>12</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0.39999999999999902</v>
-      </c>
-      <c r="G19" s="43">
-        <v>25.7</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="37">
-        <v>12</v>
-      </c>
-      <c r="N19" s="32">
-        <v>12.279</v>
-      </c>
-      <c r="O19" s="33">
-        <v>24.4</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="37">
-        <v>12</v>
-      </c>
-      <c r="R19" s="32">
-        <v>2.536</v>
-      </c>
-      <c r="S19" s="34">
-        <v>21.9</v>
-      </c>
-      <c r="U19" s="31">
-        <v>12</v>
-      </c>
-      <c r="V19" s="32">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="W19" s="34">
-        <v>24.8</v>
-      </c>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-    </row>
-    <row r="20" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20">
-        <v>13</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="G20" s="30">
-        <v>27.4</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="31">
-        <v>13</v>
-      </c>
-      <c r="N20" s="38">
-        <v>12.311999999999999</v>
-      </c>
-      <c r="O20" s="39">
-        <v>25.4</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="31">
-        <v>13</v>
-      </c>
-      <c r="R20" s="32">
-        <v>2.569</v>
-      </c>
-      <c r="S20" s="34">
-        <v>22.4</v>
-      </c>
-      <c r="U20" s="31">
-        <v>13</v>
-      </c>
-      <c r="V20" s="32">
-        <v>1.101</v>
-      </c>
-      <c r="W20" s="34">
-        <v>25.9</v>
-      </c>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-    </row>
-    <row r="21" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="31">
-        <v>14</v>
-      </c>
-      <c r="R21" s="32">
-        <v>2.6030000000000002</v>
-      </c>
-      <c r="S21" s="34">
-        <v>22.9</v>
-      </c>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-    </row>
-    <row r="22" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="31">
-        <v>15</v>
-      </c>
-      <c r="R22" s="32">
-        <v>2.6360000000000001</v>
-      </c>
-      <c r="S22" s="34">
-        <v>23.4</v>
-      </c>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-    </row>
-    <row r="23" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="37">
-        <v>16</v>
-      </c>
-      <c r="R23" s="32">
-        <v>2.669</v>
-      </c>
-      <c r="S23" s="40">
-        <v>24</v>
-      </c>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-    </row>
-    <row r="24" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="7"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-    </row>
-    <row r="25" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="7"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-    </row>
-    <row r="26" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="7"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
+      <c r="C26" s="56">
+        <f>(B22*C22+B23*C23+B24*C24+C25*B25)/B26</f>
+        <v>0.28863636363636364</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="5"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="7"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
+      <c r="A27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="5"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
+      <c r="A28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
     </row>
     <row r="29" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
+      <c r="A29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
     </row>
     <row r="30" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
+      <c r="A30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
     </row>
     <row r="31" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
+      <c r="A31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
+      <c r="A32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
     </row>
     <row r="33" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
+      <c r="A33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
     </row>
     <row r="34" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
+      <c r="A34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
     </row>
     <row r="35" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
+      <c r="A35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
     </row>
     <row r="36" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
+      <c r="A36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
     </row>
     <row r="37" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
+      <c r="A37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
     </row>
     <row r="38" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
     </row>
     <row r="39" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
     </row>
     <row r="40" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
     </row>
     <row r="41" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
     </row>
     <row r="42" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
     </row>
     <row r="43" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
-      <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
     </row>
     <row r="44" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
     </row>
     <row r="45" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
-      <c r="AE45" s="18"/>
-      <c r="AF45" s="18"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
     </row>
     <row r="46" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="18"/>
-      <c r="AA46" s="18"/>
-      <c r="AB46" s="18"/>
-      <c r="AC46" s="18"/>
-      <c r="AD46" s="18"/>
-      <c r="AE46" s="18"/>
-      <c r="AF46" s="18"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
     </row>
     <row r="47" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
-      <c r="AE47" s="18"/>
-      <c r="AF47" s="18"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
     </row>
     <row r="48" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
-      <c r="AA48" s="18"/>
-      <c r="AB48" s="18"/>
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="18"/>
-      <c r="AE48" s="18"/>
-      <c r="AF48" s="18"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
     </row>
     <row r="49" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="18"/>
-      <c r="AB49" s="18"/>
-      <c r="AC49" s="18"/>
-      <c r="AD49" s="18"/>
-      <c r="AE49" s="18"/>
-      <c r="AF49" s="18"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
     </row>
     <row r="50" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="18"/>
-      <c r="AB50" s="18"/>
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="18"/>
-      <c r="AF50" s="18"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
     </row>
     <row r="51" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
     </row>
     <row r="52" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="18"/>
-      <c r="AC52" s="18"/>
-      <c r="AD52" s="18"/>
-      <c r="AE52" s="18"/>
-      <c r="AF52" s="18"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
     </row>
     <row r="53" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
-      <c r="AE53" s="18"/>
-      <c r="AF53" s="18"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
     </row>
     <row r="54" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
-      <c r="AF54" s="18"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
     </row>
     <row r="55" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
     </row>
     <row r="56" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="18"/>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
-      <c r="AE56" s="18"/>
-      <c r="AF56" s="18"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
     </row>
     <row r="57" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="18"/>
-      <c r="AB57" s="18"/>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-      <c r="AE57" s="18"/>
-      <c r="AF57" s="18"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
     </row>
     <row r="58" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="18"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
     </row>
     <row r="59" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
     </row>
     <row r="60" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AE60" s="18"/>
-      <c r="AF60" s="18"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
     </row>
     <row r="61" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AE61" s="18"/>
-      <c r="AF61" s="18"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
     </row>
     <row r="62" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18"/>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="18"/>
-      <c r="AA62" s="18"/>
-      <c r="AB62" s="18"/>
-      <c r="AC62" s="18"/>
-      <c r="AD62" s="18"/>
-      <c r="AE62" s="18"/>
-      <c r="AF62" s="18"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
     </row>
     <row r="63" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="18"/>
-      <c r="AB63" s="18"/>
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-      <c r="AE63" s="18"/>
-      <c r="AF63" s="18"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
     </row>
     <row r="64" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="18"/>
-      <c r="AB64" s="18"/>
-      <c r="AC64" s="18"/>
-      <c r="AD64" s="18"/>
-      <c r="AE64" s="18"/>
-      <c r="AF64" s="18"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
     </row>
     <row r="65" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18"/>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="18"/>
-      <c r="AA65" s="18"/>
-      <c r="AB65" s="18"/>
-      <c r="AC65" s="18"/>
-      <c r="AD65" s="18"/>
-      <c r="AE65" s="18"/>
-      <c r="AF65" s="18"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
     </row>
     <row r="66" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="18"/>
-      <c r="AA66" s="18"/>
-      <c r="AB66" s="18"/>
-      <c r="AC66" s="18"/>
-      <c r="AD66" s="18"/>
-      <c r="AE66" s="18"/>
-      <c r="AF66" s="18"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
     </row>
     <row r="67" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="18"/>
-      <c r="AA67" s="18"/>
-      <c r="AB67" s="18"/>
-      <c r="AC67" s="18"/>
-      <c r="AD67" s="18"/>
-      <c r="AE67" s="18"/>
-      <c r="AF67" s="18"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
     </row>
     <row r="68" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
-      <c r="Y68" s="18"/>
-      <c r="Z68" s="18"/>
-      <c r="AA68" s="18"/>
-      <c r="AB68" s="18"/>
-      <c r="AC68" s="18"/>
-      <c r="AD68" s="18"/>
-      <c r="AE68" s="18"/>
-      <c r="AF68" s="18"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
     </row>
     <row r="69" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-      <c r="V69" s="18"/>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="18"/>
-      <c r="Z69" s="18"/>
-      <c r="AA69" s="18"/>
-      <c r="AB69" s="18"/>
-      <c r="AC69" s="18"/>
-      <c r="AD69" s="18"/>
-      <c r="AE69" s="18"/>
-      <c r="AF69" s="18"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
     </row>
     <row r="70" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="18"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="18"/>
-      <c r="AA70" s="18"/>
-      <c r="AB70" s="18"/>
-      <c r="AC70" s="18"/>
-      <c r="AD70" s="18"/>
-      <c r="AE70" s="18"/>
-      <c r="AF70" s="18"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="7"/>
     </row>
     <row r="71" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="18"/>
-      <c r="X71" s="18"/>
-      <c r="Y71" s="18"/>
-      <c r="Z71" s="18"/>
-      <c r="AA71" s="18"/>
-      <c r="AB71" s="18"/>
-      <c r="AC71" s="18"/>
-      <c r="AD71" s="18"/>
-      <c r="AE71" s="18"/>
-      <c r="AF71" s="18"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="7"/>
     </row>
     <row r="72" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="18"/>
-      <c r="AA72" s="18"/>
-      <c r="AB72" s="18"/>
-      <c r="AC72" s="18"/>
-      <c r="AD72" s="18"/>
-      <c r="AE72" s="18"/>
-      <c r="AF72" s="18"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
     </row>
     <row r="73" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="18"/>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18"/>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="18"/>
-      <c r="AA73" s="18"/>
-      <c r="AB73" s="18"/>
-      <c r="AC73" s="18"/>
-      <c r="AD73" s="18"/>
-      <c r="AE73" s="18"/>
-      <c r="AF73" s="18"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
     </row>
     <row r="74" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="18"/>
-      <c r="AA74" s="18"/>
-      <c r="AB74" s="18"/>
-      <c r="AC74" s="18"/>
-      <c r="AD74" s="18"/>
-      <c r="AE74" s="18"/>
-      <c r="AF74" s="18"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
     </row>
     <row r="75" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
-      <c r="AA75" s="18"/>
-      <c r="AB75" s="18"/>
-      <c r="AC75" s="18"/>
-      <c r="AD75" s="18"/>
-      <c r="AE75" s="18"/>
-      <c r="AF75" s="18"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
     </row>
     <row r="76" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="18"/>
-      <c r="AA76" s="18"/>
-      <c r="AB76" s="18"/>
-      <c r="AC76" s="18"/>
-      <c r="AD76" s="18"/>
-      <c r="AE76" s="18"/>
-      <c r="AF76" s="18"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
     </row>
     <row r="77" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="18"/>
-      <c r="V77" s="18"/>
-      <c r="W77" s="18"/>
-      <c r="X77" s="18"/>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="18"/>
-      <c r="AA77" s="18"/>
-      <c r="AB77" s="18"/>
-      <c r="AC77" s="18"/>
-      <c r="AD77" s="18"/>
-      <c r="AE77" s="18"/>
-      <c r="AF77" s="18"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="7"/>
     </row>
     <row r="78" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="18"/>
-      <c r="AA78" s="18"/>
-      <c r="AB78" s="18"/>
-      <c r="AC78" s="18"/>
-      <c r="AD78" s="18"/>
-      <c r="AE78" s="18"/>
-      <c r="AF78" s="18"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
     </row>
     <row r="79" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="18"/>
-      <c r="AF79" s="18"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
     </row>
     <row r="80" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
     </row>
     <row r="81" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="18"/>
-      <c r="AF81" s="18"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
     </row>
     <row r="82" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="18"/>
-      <c r="V82" s="18"/>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="18"/>
-      <c r="AA82" s="18"/>
-      <c r="AB82" s="18"/>
-      <c r="AC82" s="18"/>
-      <c r="AD82" s="18"/>
-      <c r="AE82" s="18"/>
-      <c r="AF82" s="18"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
     </row>
     <row r="83" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="18"/>
-      <c r="AA83" s="18"/>
-      <c r="AB83" s="18"/>
-      <c r="AC83" s="18"/>
-      <c r="AD83" s="18"/>
-      <c r="AE83" s="18"/>
-      <c r="AF83" s="18"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
     </row>
     <row r="84" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="18"/>
-      <c r="AA84" s="18"/>
-      <c r="AB84" s="18"/>
-      <c r="AC84" s="18"/>
-      <c r="AD84" s="18"/>
-      <c r="AE84" s="18"/>
-      <c r="AF84" s="18"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="7"/>
     </row>
     <row r="85" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
-      <c r="V85" s="18"/>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18"/>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="18"/>
-      <c r="AA85" s="18"/>
-      <c r="AB85" s="18"/>
-      <c r="AC85" s="18"/>
-      <c r="AD85" s="18"/>
-      <c r="AE85" s="18"/>
-      <c r="AF85" s="18"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
     </row>
     <row r="86" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="18"/>
-      <c r="V86" s="18"/>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18"/>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="18"/>
-      <c r="AA86" s="18"/>
-      <c r="AB86" s="18"/>
-      <c r="AC86" s="18"/>
-      <c r="AD86" s="18"/>
-      <c r="AE86" s="18"/>
-      <c r="AF86" s="18"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
     </row>
     <row r="87" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="18"/>
-      <c r="AA87" s="18"/>
-      <c r="AB87" s="18"/>
-      <c r="AC87" s="18"/>
-      <c r="AD87" s="18"/>
-      <c r="AE87" s="18"/>
-      <c r="AF87" s="18"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
     </row>
     <row r="88" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="18"/>
-      <c r="AA88" s="18"/>
-      <c r="AB88" s="18"/>
-      <c r="AC88" s="18"/>
-      <c r="AD88" s="18"/>
-      <c r="AE88" s="18"/>
-      <c r="AF88" s="18"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
     </row>
     <row r="89" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
       <c r="P89" s="1"/>
     </row>
     <row r="90" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8881,7 +9135,12 @@
       <c r="P975" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="U6:W6"/>
@@ -8898,17 +9157,17 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="6">
+  <tableParts count="8">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Parte 2/Dados/bloco_rampa.xlsx
+++ b/Parte 2/Dados/bloco_rampa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26c96ee5941d8100/USP/3_Semestre/MAC0209/EP1/MAC0209-EP1/Parte 2/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="563" documentId="8_{CC4223DC-985D-49C7-BAC9-916EC20BBDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3D9B67-DD7A-484A-A2B6-C1EA258C4042}"/>
+  <xr:revisionPtr revIDLastSave="584" documentId="8_{CC4223DC-985D-49C7-BAC9-916EC20BBDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE9CE1F6-E346-460C-88C8-A34D4E29820D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -587,8 +593,41 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,15 +636,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,32 +659,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,30 +676,84 @@
   </cellStyles>
   <dxfs count="58">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -761,63 +829,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
@@ -825,20 +836,23 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1809,10 +1823,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73A78A46-A924-4579-9890-5F61199F6EAF}" name="Tabela1" displayName="Tabela1" ref="B6:C10" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="B6:C10" xr:uid="{73A78A46-A924-4579-9890-5F61199F6EAF}"/>
@@ -1900,22 +1910,22 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0EEF875D-95AE-4ACD-85BA-45A6EC0C78C0}" name="Tabela7" displayName="Tabela7" ref="B14:C19" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0EEF875D-95AE-4ACD-85BA-45A6EC0C78C0}" name="Tabela7" displayName="Tabela7" ref="B14:C19" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B14:C19" xr:uid="{0EEF875D-95AE-4ACD-85BA-45A6EC0C78C0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F624ECCE-44BF-418C-8DBF-94BFECE11FC0}" name="Frequência" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{835B37EF-3836-43EB-AA97-DF2721F2F841}" name="Valor" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{F624ECCE-44BF-418C-8DBF-94BFECE11FC0}" name="Frequência" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{835B37EF-3836-43EB-AA97-DF2721F2F841}" name="Valor" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F4D0B40F-B0BF-4B89-99BE-E0C6DBAE92C2}" name="Tabela8" displayName="Tabela8" ref="B21:C26" totalsRowShown="0" headerRowBorderDxfId="0" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F4D0B40F-B0BF-4B89-99BE-E0C6DBAE92C2}" name="Tabela8" displayName="Tabela8" ref="B21:C26" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B21:C26" xr:uid="{F4D0B40F-B0BF-4B89-99BE-E0C6DBAE92C2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{32F0D679-FD92-43A6-9CAC-DAAC1E15033B}" name="Frequência" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{95B8F6A5-73FA-446F-80A4-DCB781AC7D13}" name="Valor" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{32F0D679-FD92-43A6-9CAC-DAAC1E15033B}" name="Frequência" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{95B8F6A5-73FA-446F-80A4-DCB781AC7D13}" name="Valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2125,7 +2135,7 @@
   <dimension ref="A1:AF975"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2145,30 +2155,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
@@ -2179,41 +2189,42 @@
       <c r="AF1" s="7"/>
     </row>
     <row r="2" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="48" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="48" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="M2" s="35" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="35" t="s">
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="35" t="s">
+      <c r="R2" s="47"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="7"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="58"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
@@ -2224,41 +2235,42 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="38" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
-      <c r="M3" s="38" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="38" t="s">
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="38" t="s">
+      <c r="R3" s="42"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="7"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
@@ -2269,10 +2281,10 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2282,7 +2294,7 @@
       <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2292,6 +2304,7 @@
       <c r="K4" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="L4" s="59"/>
       <c r="M4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2301,7 +2314,7 @@
       <c r="O4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="5"/>
+      <c r="P4" s="57"/>
       <c r="Q4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2311,7 +2324,7 @@
       <c r="S4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="58"/>
       <c r="U4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2321,7 +2334,7 @@
       <c r="W4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="7"/>
+      <c r="X4" s="58"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
@@ -2332,12 +2345,12 @@
       <c r="AF4" s="7"/>
     </row>
     <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="9">
         <v>16.3</v>
       </c>
@@ -2348,7 +2361,7 @@
         <f>ATAN(E5/F5)*180/PI()</f>
         <v>18.540986541795807</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="9">
         <v>18.5</v>
       </c>
@@ -2359,6 +2372,7 @@
         <f>ATAN(I5/J5)*180/PI()</f>
         <v>20.839749214080893</v>
       </c>
+      <c r="L5" s="59"/>
       <c r="M5" s="9">
         <v>12.7</v>
       </c>
@@ -2369,7 +2383,7 @@
         <f>ATAN(M5/N5)*180/PI()</f>
         <v>14.644867194730461</v>
       </c>
-      <c r="P5" s="5"/>
+      <c r="P5" s="57"/>
       <c r="Q5" s="9">
         <v>10.199999999999999</v>
       </c>
@@ -2380,7 +2394,7 @@
         <f>ATAN(Q5/R5)*180/PI()</f>
         <v>11.853004167743999</v>
       </c>
-      <c r="T5" s="7"/>
+      <c r="T5" s="58"/>
       <c r="U5" s="9">
         <v>14.1</v>
       </c>
@@ -2391,7 +2405,7 @@
         <f>ATAN(U5/V5)*180/PI()</f>
         <v>16.178683616279667</v>
       </c>
-      <c r="X5" s="7"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -2402,43 +2416,44 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="41" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="41" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43"/>
-      <c r="M6" s="41" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="41" t="s">
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="41" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="7"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="58"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -2449,14 +2464,14 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="11">
         <v>0.38069999999999998</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2481,7 @@
       <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="9" t="s">
         <v>12</v>
       </c>
@@ -2476,6 +2491,7 @@
       <c r="K7" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="L7" s="59"/>
       <c r="M7" s="12" t="s">
         <v>12</v>
       </c>
@@ -2485,7 +2501,7 @@
       <c r="O7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="5"/>
+      <c r="P7" s="57"/>
       <c r="Q7" s="12" t="s">
         <v>12</v>
       </c>
@@ -2495,7 +2511,7 @@
       <c r="S7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="7"/>
+      <c r="T7" s="58"/>
       <c r="U7" s="12" t="s">
         <v>12</v>
       </c>
@@ -2505,7 +2521,7 @@
       <c r="W7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="7"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -2516,14 +2532,14 @@
       <c r="AF7" s="7"/>
     </row>
     <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="11">
         <v>7.6</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="9">
         <v>1</v>
       </c>
@@ -2533,7 +2549,7 @@
       <c r="G8" s="31">
         <v>19.2</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="9">
         <v>1</v>
       </c>
@@ -2543,6 +2559,7 @@
       <c r="K8" s="16">
         <v>19.2</v>
       </c>
+      <c r="L8" s="59"/>
       <c r="M8" s="17">
         <v>1</v>
       </c>
@@ -2552,7 +2569,7 @@
       <c r="O8" s="19">
         <v>19.2</v>
       </c>
-      <c r="P8" s="5"/>
+      <c r="P8" s="57"/>
       <c r="Q8" s="17">
         <v>1</v>
       </c>
@@ -2562,7 +2579,7 @@
       <c r="S8" s="20">
         <v>19.2</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="58"/>
       <c r="U8" s="17">
         <v>1</v>
       </c>
@@ -2572,7 +2589,7 @@
       <c r="W8" s="33">
         <v>19.399999999999999</v>
       </c>
-      <c r="X8" s="7"/>
+      <c r="X8" s="58"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -2583,14 +2600,14 @@
       <c r="AF8" s="7"/>
     </row>
     <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="11">
         <v>2.79</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="9">
         <v>2</v>
       </c>
@@ -2600,7 +2617,7 @@
       <c r="G9" s="28">
         <v>19.2</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="9">
         <v>2</v>
       </c>
@@ -2610,6 +2627,7 @@
       <c r="K9" s="16">
         <v>19.3</v>
       </c>
+      <c r="L9" s="59"/>
       <c r="M9" s="17">
         <v>2</v>
       </c>
@@ -2619,7 +2637,7 @@
       <c r="O9" s="19">
         <v>19.3</v>
       </c>
-      <c r="P9" s="5"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="17">
         <v>2</v>
       </c>
@@ -2629,7 +2647,7 @@
       <c r="S9" s="20">
         <v>19.2</v>
       </c>
-      <c r="T9" s="7"/>
+      <c r="T9" s="58"/>
       <c r="U9" s="17">
         <v>2</v>
       </c>
@@ -2639,7 +2657,7 @@
       <c r="W9" s="20">
         <v>19.399999999999999</v>
       </c>
-      <c r="X9" s="7"/>
+      <c r="X9" s="58"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -2650,14 +2668,14 @@
       <c r="AF9" s="7"/>
     </row>
     <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="22">
         <v>3.63</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="9">
         <v>3</v>
       </c>
@@ -2667,7 +2685,7 @@
       <c r="G10" s="28">
         <v>19.2</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="9">
         <v>3</v>
       </c>
@@ -2677,6 +2695,7 @@
       <c r="K10" s="16">
         <v>19.399999999999999</v>
       </c>
+      <c r="L10" s="59"/>
       <c r="M10" s="17">
         <v>3</v>
       </c>
@@ -2686,7 +2705,7 @@
       <c r="O10" s="19">
         <v>19.399999999999999</v>
       </c>
-      <c r="P10" s="5"/>
+      <c r="P10" s="57"/>
       <c r="Q10" s="17">
         <v>3</v>
       </c>
@@ -2696,7 +2715,7 @@
       <c r="S10" s="20">
         <v>19.3</v>
       </c>
-      <c r="T10" s="7"/>
+      <c r="T10" s="58"/>
       <c r="U10" s="17">
         <v>3</v>
       </c>
@@ -2706,7 +2725,7 @@
       <c r="W10" s="20">
         <v>19.399999999999999</v>
       </c>
-      <c r="X10" s="7"/>
+      <c r="X10" s="58"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -2717,10 +2736,10 @@
       <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="9">
         <v>4</v>
       </c>
@@ -2730,7 +2749,7 @@
       <c r="G11" s="28">
         <v>19.3</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="9">
         <v>4</v>
       </c>
@@ -2740,6 +2759,7 @@
       <c r="K11" s="16">
         <v>19.7</v>
       </c>
+      <c r="L11" s="59"/>
       <c r="M11" s="17">
         <v>4</v>
       </c>
@@ -2749,7 +2769,7 @@
       <c r="O11" s="19">
         <v>19.600000000000001</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="P11" s="57"/>
       <c r="Q11" s="17">
         <v>4</v>
       </c>
@@ -2759,7 +2779,7 @@
       <c r="S11" s="20">
         <v>19.399999999999999</v>
       </c>
-      <c r="T11" s="7"/>
+      <c r="T11" s="58"/>
       <c r="U11" s="17">
         <v>4</v>
       </c>
@@ -2769,7 +2789,7 @@
       <c r="W11" s="20">
         <v>19.600000000000001</v>
       </c>
-      <c r="X11" s="7"/>
+      <c r="X11" s="58"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -2780,12 +2800,12 @@
       <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="9">
         <v>5</v>
       </c>
@@ -2795,7 +2815,7 @@
       <c r="G12" s="28">
         <v>19.600000000000001</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="9">
         <v>5</v>
       </c>
@@ -2805,6 +2825,7 @@
       <c r="K12" s="16">
         <v>20.3</v>
       </c>
+      <c r="L12" s="59"/>
       <c r="M12" s="17">
         <v>5</v>
       </c>
@@ -2814,7 +2835,7 @@
       <c r="O12" s="19">
         <v>20</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="57"/>
       <c r="Q12" s="17">
         <v>5</v>
       </c>
@@ -2824,7 +2845,7 @@
       <c r="S12" s="20">
         <v>19.600000000000001</v>
       </c>
-      <c r="T12" s="7"/>
+      <c r="T12" s="58"/>
       <c r="U12" s="17">
         <v>5</v>
       </c>
@@ -2834,7 +2855,7 @@
       <c r="W12" s="20">
         <v>19.8</v>
       </c>
-      <c r="X12" s="7"/>
+      <c r="X12" s="58"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -2845,12 +2866,12 @@
       <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="9">
         <v>6</v>
       </c>
@@ -2860,7 +2881,7 @@
       <c r="G13" s="28">
         <v>20</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="9">
         <v>6</v>
       </c>
@@ -2870,6 +2891,7 @@
       <c r="K13" s="16">
         <v>20.9</v>
       </c>
+      <c r="L13" s="59"/>
       <c r="M13" s="23">
         <v>6</v>
       </c>
@@ -2879,7 +2901,7 @@
       <c r="O13" s="19">
         <v>20.3</v>
       </c>
-      <c r="P13" s="5"/>
+      <c r="P13" s="57"/>
       <c r="Q13" s="23">
         <v>6</v>
       </c>
@@ -2889,7 +2911,7 @@
       <c r="S13" s="26">
         <v>19.8</v>
       </c>
-      <c r="T13" s="7"/>
+      <c r="T13" s="58"/>
       <c r="U13" s="23">
         <v>6</v>
       </c>
@@ -2899,7 +2921,7 @@
       <c r="W13" s="20">
         <v>20.2</v>
       </c>
-      <c r="X13" s="7"/>
+      <c r="X13" s="58"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -2910,14 +2932,14 @@
       <c r="AF13" s="7"/>
     </row>
     <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="9">
         <v>7</v>
       </c>
@@ -2927,7 +2949,7 @@
       <c r="G14" s="28">
         <v>20.6</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="9">
         <v>7</v>
       </c>
@@ -2937,7 +2959,7 @@
       <c r="K14" s="28">
         <v>21.6</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="17">
         <v>7</v>
       </c>
@@ -2947,7 +2969,7 @@
       <c r="O14" s="19">
         <v>20.9</v>
       </c>
-      <c r="P14" s="5"/>
+      <c r="P14" s="57"/>
       <c r="Q14" s="17">
         <v>7</v>
       </c>
@@ -2957,7 +2979,7 @@
       <c r="S14" s="20">
         <v>20</v>
       </c>
-      <c r="T14" s="7"/>
+      <c r="T14" s="58"/>
       <c r="U14" s="17">
         <v>7</v>
       </c>
@@ -2967,7 +2989,7 @@
       <c r="W14" s="20">
         <v>20.7</v>
       </c>
-      <c r="X14" s="7"/>
+      <c r="X14" s="58"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -2978,14 +3000,14 @@
       <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="49">
+      <c r="A15" s="57"/>
+      <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="35">
         <v>0.17</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="9">
         <v>8</v>
       </c>
@@ -2995,7 +3017,7 @@
       <c r="G15" s="28">
         <v>21.3</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="9">
         <v>8</v>
       </c>
@@ -3005,7 +3027,7 @@
       <c r="K15" s="28">
         <v>22.8</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="58"/>
       <c r="M15" s="17">
         <v>8</v>
       </c>
@@ -3015,7 +3037,7 @@
       <c r="O15" s="19">
         <v>21.4</v>
       </c>
-      <c r="P15" s="5"/>
+      <c r="P15" s="57"/>
       <c r="Q15" s="17">
         <v>8</v>
       </c>
@@ -3025,7 +3047,7 @@
       <c r="S15" s="20">
         <v>20.3</v>
       </c>
-      <c r="T15" s="7"/>
+      <c r="T15" s="58"/>
       <c r="U15" s="17">
         <v>8</v>
       </c>
@@ -3035,7 +3057,7 @@
       <c r="W15" s="20">
         <v>21.3</v>
       </c>
-      <c r="X15" s="7"/>
+      <c r="X15" s="58"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
@@ -3046,14 +3068,14 @@
       <c r="AF15" s="7"/>
     </row>
     <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="49">
+      <c r="A16" s="57"/>
+      <c r="B16" s="34">
         <v>7</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="35">
         <v>0.19</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="9">
         <v>9</v>
       </c>
@@ -3063,7 +3085,7 @@
       <c r="G16" s="28">
         <v>22.3</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="9">
         <v>9</v>
       </c>
@@ -3073,7 +3095,7 @@
       <c r="K16" s="28">
         <v>24.2</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="58"/>
       <c r="M16" s="17">
         <v>9</v>
       </c>
@@ -3083,7 +3105,7 @@
       <c r="O16" s="19">
         <v>22</v>
       </c>
-      <c r="P16" s="5"/>
+      <c r="P16" s="57"/>
       <c r="Q16" s="17">
         <v>9</v>
       </c>
@@ -3093,6 +3115,7 @@
       <c r="S16" s="20">
         <v>20.7</v>
       </c>
+      <c r="T16" s="59"/>
       <c r="U16" s="17">
         <v>9</v>
       </c>
@@ -3102,7 +3125,7 @@
       <c r="W16" s="20">
         <v>21.9</v>
       </c>
-      <c r="X16" s="7"/>
+      <c r="X16" s="58"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -3113,14 +3136,14 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="49">
+      <c r="A17" s="57"/>
+      <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="35">
         <v>0.21</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="9">
         <v>10</v>
       </c>
@@ -3130,7 +3153,7 @@
       <c r="G17" s="28">
         <v>23.3</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="9">
         <v>10</v>
       </c>
@@ -3140,7 +3163,7 @@
       <c r="K17" s="30">
         <v>25.7</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="58"/>
       <c r="M17" s="17">
         <v>10</v>
       </c>
@@ -3150,7 +3173,7 @@
       <c r="O17" s="19">
         <v>22.7</v>
       </c>
-      <c r="P17" s="5"/>
+      <c r="P17" s="57"/>
       <c r="Q17" s="17">
         <v>10</v>
       </c>
@@ -3160,6 +3183,7 @@
       <c r="S17" s="20">
         <v>21</v>
       </c>
+      <c r="T17" s="59"/>
       <c r="U17" s="23">
         <v>10</v>
       </c>
@@ -3169,7 +3193,7 @@
       <c r="W17" s="20">
         <v>22.8</v>
       </c>
-      <c r="X17" s="7"/>
+      <c r="X17" s="58"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -3180,14 +3204,14 @@
       <c r="AF17" s="7"/>
     </row>
     <row r="18" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="49">
+      <c r="A18" s="56"/>
+      <c r="B18" s="34">
         <v>1</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="35">
         <v>0.23</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="9">
         <v>11</v>
       </c>
@@ -3197,11 +3221,11 @@
       <c r="G18" s="28">
         <v>24.4</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
       <c r="M18" s="17">
         <v>11</v>
       </c>
@@ -3211,7 +3235,7 @@
       <c r="O18" s="25">
         <v>23.5</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="17">
         <v>11</v>
       </c>
@@ -3221,6 +3245,7 @@
       <c r="S18" s="20">
         <v>21.4</v>
       </c>
+      <c r="T18" s="59"/>
       <c r="U18" s="17">
         <v>11</v>
       </c>
@@ -3230,7 +3255,7 @@
       <c r="W18" s="26">
         <v>23.2</v>
       </c>
-      <c r="X18" s="7"/>
+      <c r="X18" s="58"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -3241,16 +3266,16 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="55">
+      <c r="A19" s="56"/>
+      <c r="B19" s="39">
         <f>SUM(B15:B18)</f>
         <v>11</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="40">
         <f>(B15*C15+B16*C16+B17*C17+C18*B18)/B19</f>
         <v>0.19181818181818186</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="9">
         <v>12</v>
       </c>
@@ -3260,11 +3285,11 @@
       <c r="G19" s="28">
         <v>25.7</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
       <c r="M19" s="23">
         <v>12</v>
       </c>
@@ -3274,7 +3299,7 @@
       <c r="O19" s="19">
         <v>24.4</v>
       </c>
-      <c r="P19" s="6"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="23">
         <v>12</v>
       </c>
@@ -3284,6 +3309,7 @@
       <c r="S19" s="20">
         <v>21.9</v>
       </c>
+      <c r="T19" s="59"/>
       <c r="U19" s="17">
         <v>12</v>
       </c>
@@ -3293,7 +3319,7 @@
       <c r="W19" s="20">
         <v>24.8</v>
       </c>
-      <c r="X19" s="7"/>
+      <c r="X19" s="58"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -3304,12 +3330,12 @@
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="9">
         <v>13</v>
       </c>
@@ -3319,11 +3345,11 @@
       <c r="G20" s="16">
         <v>27.4</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="17">
         <v>13</v>
       </c>
@@ -3333,7 +3359,7 @@
       <c r="O20" s="25">
         <v>25.4</v>
       </c>
-      <c r="P20" s="5"/>
+      <c r="P20" s="57"/>
       <c r="Q20" s="17">
         <v>13</v>
       </c>
@@ -3343,6 +3369,7 @@
       <c r="S20" s="20">
         <v>22.4</v>
       </c>
+      <c r="T20" s="59"/>
       <c r="U20" s="17">
         <v>13</v>
       </c>
@@ -3352,7 +3379,7 @@
       <c r="W20" s="20">
         <v>25.9</v>
       </c>
-      <c r="X20" s="7"/>
+      <c r="X20" s="58"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -3363,23 +3390,26 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="5"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="57"/>
       <c r="Q21" s="17">
         <v>14</v>
       </c>
@@ -3389,7 +3419,11 @@
       <c r="S21" s="20">
         <v>22.9</v>
       </c>
-      <c r="X21" s="7"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="58"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -3400,23 +3434,26 @@
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="49">
+      <c r="A22" s="57"/>
+      <c r="B22" s="34">
         <v>2</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="35">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="5"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="57"/>
       <c r="Q22" s="17">
         <v>15</v>
       </c>
@@ -3426,7 +3463,11 @@
       <c r="S22" s="20">
         <v>23.4</v>
       </c>
-      <c r="X22" s="7"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="58"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -3437,22 +3478,26 @@
       <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="49">
+      <c r="A23" s="57"/>
+      <c r="B23" s="34">
         <v>5</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="35">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="5"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="57"/>
       <c r="Q23" s="23">
         <v>16</v>
       </c>
@@ -3462,7 +3507,11 @@
       <c r="S23" s="26">
         <v>24</v>
       </c>
-      <c r="X23" s="7"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="58"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
@@ -3473,23 +3522,34 @@
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="49">
+      <c r="A24" s="56"/>
+      <c r="B24" s="34">
         <v>3</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="36">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="5"/>
-      <c r="X24" s="7"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="58"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -3500,23 +3560,34 @@
       <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="49">
+      <c r="A25" s="56"/>
+      <c r="B25" s="34">
         <v>1</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="36">
         <v>0.375</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="5"/>
-      <c r="X25" s="7"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="58"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -3527,23 +3598,36 @@
       <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="55">
+      <c r="A26" s="56"/>
+      <c r="B26" s="39">
         <f>SUM(B22:B25)</f>
         <v>11</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="40">
         <f>(B22*C22+B23*C23+B24*C24+C25*B25)/B26</f>
         <v>0.28863636363636364</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="5"/>
-      <c r="X26" s="7"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="58"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -3554,15 +3638,30 @@
       <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="5"/>
-      <c r="X27" s="7"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="58"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
@@ -9136,11 +9235,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="U6:W6"/>
@@ -9157,10 +9251,15 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="8">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -9168,6 +9267,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Parte 2/Dados/bloco_rampa.xlsx
+++ b/Parte 2/Dados/bloco_rampa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26c96ee5941d8100/USP/3_Semestre/MAC0209/EP1/MAC0209-EP1/Parte 2/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="584" documentId="8_{CC4223DC-985D-49C7-BAC9-916EC20BBDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE9CE1F6-E346-460C-88C8-A34D4E29820D}"/>
+  <xr:revisionPtr revIDLastSave="599" documentId="8_{CC4223DC-985D-49C7-BAC9-916EC20BBDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED6364C-889B-4E13-8C58-6EB42A2C21D6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="180" windowWidth="14148" windowHeight="11724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -614,20 +614,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,6 +632,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,16 +664,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2135,7 +2135,7 @@
   <dimension ref="A1:AF975"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="O20" sqref="O8:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2155,30 +2155,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
@@ -2189,42 +2189,42 @@
       <c r="AF1" s="7"/>
     </row>
     <row r="2" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="44" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="46" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="47"/>
       <c r="O2" s="48"/>
-      <c r="P2" s="56"/>
+      <c r="P2" s="41"/>
       <c r="Q2" s="46" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="47"/>
       <c r="S2" s="48"/>
-      <c r="T2" s="58"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="46" t="s">
         <v>3</v>
       </c>
       <c r="V2" s="47"/>
       <c r="W2" s="48"/>
-      <c r="X2" s="58"/>
+      <c r="X2" s="43"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
@@ -2235,42 +2235,42 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="41" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="41" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="41" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="41" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="41" t="s">
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="58"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="43"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
@@ -2281,10 +2281,10 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2294,7 +2294,7 @@
       <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="K4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="59"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="O4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="57"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="S4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="58"/>
+      <c r="T4" s="43"/>
       <c r="U4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="W4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="58"/>
+      <c r="X4" s="43"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
@@ -2345,12 +2345,12 @@
       <c r="AF4" s="7"/>
     </row>
     <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="9">
         <v>16.3</v>
       </c>
@@ -2361,7 +2361,7 @@
         <f>ATAN(E5/F5)*180/PI()</f>
         <v>18.540986541795807</v>
       </c>
-      <c r="H5" s="57"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="9">
         <v>18.5</v>
       </c>
@@ -2372,18 +2372,18 @@
         <f>ATAN(I5/J5)*180/PI()</f>
         <v>20.839749214080893</v>
       </c>
-      <c r="L5" s="59"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="9">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="N5" s="9">
         <v>48.6</v>
       </c>
       <c r="O5" s="27">
         <f>ATAN(M5/N5)*180/PI()</f>
-        <v>14.644867194730461</v>
-      </c>
-      <c r="P5" s="57"/>
+        <v>14.975434413662061</v>
+      </c>
+      <c r="P5" s="42"/>
       <c r="Q5" s="9">
         <v>10.199999999999999</v>
       </c>
@@ -2394,7 +2394,7 @@
         <f>ATAN(Q5/R5)*180/PI()</f>
         <v>11.853004167743999</v>
       </c>
-      <c r="T5" s="58"/>
+      <c r="T5" s="43"/>
       <c r="U5" s="9">
         <v>14.1</v>
       </c>
@@ -2405,7 +2405,7 @@
         <f>ATAN(U5/V5)*180/PI()</f>
         <v>16.178683616279667</v>
       </c>
-      <c r="X5" s="58"/>
+      <c r="X5" s="43"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -2416,44 +2416,44 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="49" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="49" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="49" t="s">
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="49" t="s">
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="58"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="43"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -2464,14 +2464,14 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="11">
         <v>0.38069999999999998</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="9" t="s">
         <v>12</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="K7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="59"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="12" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="O7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="57"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="12" t="s">
         <v>12</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="S7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="58"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="12" t="s">
         <v>12</v>
       </c>
@@ -2521,7 +2521,7 @@
       <c r="W7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="58"/>
+      <c r="X7" s="43"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -2532,14 +2532,14 @@
       <c r="AF7" s="7"/>
     </row>
     <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="11">
         <v>7.6</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="9">
         <v>1</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="G8" s="31">
         <v>19.2</v>
       </c>
-      <c r="H8" s="60"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="9">
         <v>1</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="K8" s="16">
         <v>19.2</v>
       </c>
-      <c r="L8" s="59"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="17">
         <v>1</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="O8" s="19">
         <v>19.2</v>
       </c>
-      <c r="P8" s="57"/>
+      <c r="P8" s="42"/>
       <c r="Q8" s="17">
         <v>1</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="S8" s="20">
         <v>19.2</v>
       </c>
-      <c r="T8" s="58"/>
+      <c r="T8" s="43"/>
       <c r="U8" s="17">
         <v>1</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="W8" s="33">
         <v>19.399999999999999</v>
       </c>
-      <c r="X8" s="58"/>
+      <c r="X8" s="43"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -2600,14 +2600,14 @@
       <c r="AF8" s="7"/>
     </row>
     <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="11">
         <v>2.79</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="9">
         <v>2</v>
       </c>
@@ -2617,7 +2617,7 @@
       <c r="G9" s="28">
         <v>19.2</v>
       </c>
-      <c r="H9" s="57"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="9">
         <v>2</v>
       </c>
@@ -2627,7 +2627,7 @@
       <c r="K9" s="16">
         <v>19.3</v>
       </c>
-      <c r="L9" s="59"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="17">
         <v>2</v>
       </c>
@@ -2635,9 +2635,9 @@
         <v>11.945</v>
       </c>
       <c r="O9" s="19">
-        <v>19.3</v>
-      </c>
-      <c r="P9" s="57"/>
+        <v>19.2</v>
+      </c>
+      <c r="P9" s="42"/>
       <c r="Q9" s="17">
         <v>2</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="S9" s="20">
         <v>19.2</v>
       </c>
-      <c r="T9" s="58"/>
+      <c r="T9" s="43"/>
       <c r="U9" s="17">
         <v>2</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="W9" s="20">
         <v>19.399999999999999</v>
       </c>
-      <c r="X9" s="58"/>
+      <c r="X9" s="43"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -2668,14 +2668,14 @@
       <c r="AF9" s="7"/>
     </row>
     <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="22">
         <v>3.63</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="9">
         <v>3</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="G10" s="28">
         <v>19.2</v>
       </c>
-      <c r="H10" s="56"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="9">
         <v>3</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="K10" s="16">
         <v>19.399999999999999</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="17">
         <v>3</v>
       </c>
@@ -2703,9 +2703,9 @@
         <v>11.978999999999999</v>
       </c>
       <c r="O10" s="19">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="P10" s="57"/>
+        <v>19.3</v>
+      </c>
+      <c r="P10" s="42"/>
       <c r="Q10" s="17">
         <v>3</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="S10" s="20">
         <v>19.3</v>
       </c>
-      <c r="T10" s="58"/>
+      <c r="T10" s="43"/>
       <c r="U10" s="17">
         <v>3</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="W10" s="20">
         <v>19.399999999999999</v>
       </c>
-      <c r="X10" s="58"/>
+      <c r="X10" s="43"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -2736,10 +2736,10 @@
       <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="9">
         <v>4</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="G11" s="28">
         <v>19.3</v>
       </c>
-      <c r="H11" s="56"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="9">
         <v>4</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="K11" s="16">
         <v>19.7</v>
       </c>
-      <c r="L11" s="59"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="17">
         <v>4</v>
       </c>
@@ -2767,9 +2767,9 @@
         <v>12.012</v>
       </c>
       <c r="O11" s="19">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="P11" s="57"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P11" s="42"/>
       <c r="Q11" s="17">
         <v>4</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="S11" s="20">
         <v>19.399999999999999</v>
       </c>
-      <c r="T11" s="58"/>
+      <c r="T11" s="43"/>
       <c r="U11" s="17">
         <v>4</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="W11" s="20">
         <v>19.600000000000001</v>
       </c>
-      <c r="X11" s="58"/>
+      <c r="X11" s="43"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -2800,12 +2800,12 @@
       <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="9">
         <v>5</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="G12" s="28">
         <v>19.600000000000001</v>
       </c>
-      <c r="H12" s="56"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="9">
         <v>5</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="K12" s="16">
         <v>20.3</v>
       </c>
-      <c r="L12" s="59"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="17">
         <v>5</v>
       </c>
@@ -2833,9 +2833,9 @@
         <v>12.045</v>
       </c>
       <c r="O12" s="19">
-        <v>20</v>
-      </c>
-      <c r="P12" s="57"/>
+        <v>19.7</v>
+      </c>
+      <c r="P12" s="42"/>
       <c r="Q12" s="17">
         <v>5</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="S12" s="20">
         <v>19.600000000000001</v>
       </c>
-      <c r="T12" s="58"/>
+      <c r="T12" s="43"/>
       <c r="U12" s="17">
         <v>5</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="W12" s="20">
         <v>19.8</v>
       </c>
-      <c r="X12" s="58"/>
+      <c r="X12" s="43"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -2866,12 +2866,12 @@
       <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="9">
         <v>6</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="G13" s="28">
         <v>20</v>
       </c>
-      <c r="H13" s="56"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="9">
         <v>6</v>
       </c>
@@ -2891,7 +2891,7 @@
       <c r="K13" s="16">
         <v>20.9</v>
       </c>
-      <c r="L13" s="59"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="23">
         <v>6</v>
       </c>
@@ -2899,9 +2899,9 @@
         <v>12.079000000000001</v>
       </c>
       <c r="O13" s="19">
-        <v>20.3</v>
-      </c>
-      <c r="P13" s="57"/>
+        <v>20</v>
+      </c>
+      <c r="P13" s="42"/>
       <c r="Q13" s="23">
         <v>6</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="S13" s="26">
         <v>19.8</v>
       </c>
-      <c r="T13" s="58"/>
+      <c r="T13" s="43"/>
       <c r="U13" s="23">
         <v>6</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="W13" s="20">
         <v>20.2</v>
       </c>
-      <c r="X13" s="58"/>
+      <c r="X13" s="43"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -2932,14 +2932,14 @@
       <c r="AF13" s="7"/>
     </row>
     <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="9">
         <v>7</v>
       </c>
@@ -2949,7 +2949,7 @@
       <c r="G14" s="28">
         <v>20.6</v>
       </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="9">
         <v>7</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="K14" s="28">
         <v>21.6</v>
       </c>
-      <c r="L14" s="58"/>
+      <c r="L14" s="43"/>
       <c r="M14" s="17">
         <v>7</v>
       </c>
@@ -2967,9 +2967,9 @@
         <v>12.112</v>
       </c>
       <c r="O14" s="19">
-        <v>20.9</v>
-      </c>
-      <c r="P14" s="57"/>
+        <v>20.6</v>
+      </c>
+      <c r="P14" s="42"/>
       <c r="Q14" s="17">
         <v>7</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="S14" s="20">
         <v>20</v>
       </c>
-      <c r="T14" s="58"/>
+      <c r="T14" s="43"/>
       <c r="U14" s="17">
         <v>7</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="W14" s="20">
         <v>20.7</v>
       </c>
-      <c r="X14" s="58"/>
+      <c r="X14" s="43"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -3000,14 +3000,14 @@
       <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="34">
         <v>2</v>
       </c>
       <c r="C15" s="35">
         <v>0.17</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="9">
         <v>8</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="G15" s="28">
         <v>21.3</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9">
         <v>8</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="K15" s="28">
         <v>22.8</v>
       </c>
-      <c r="L15" s="58"/>
+      <c r="L15" s="43"/>
       <c r="M15" s="17">
         <v>8</v>
       </c>
@@ -3035,9 +3035,9 @@
         <v>12.145</v>
       </c>
       <c r="O15" s="19">
-        <v>21.4</v>
-      </c>
-      <c r="P15" s="57"/>
+        <v>21.1</v>
+      </c>
+      <c r="P15" s="42"/>
       <c r="Q15" s="17">
         <v>8</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="S15" s="20">
         <v>20.3</v>
       </c>
-      <c r="T15" s="58"/>
+      <c r="T15" s="43"/>
       <c r="U15" s="17">
         <v>8</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="W15" s="20">
         <v>21.3</v>
       </c>
-      <c r="X15" s="58"/>
+      <c r="X15" s="43"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
@@ -3068,14 +3068,14 @@
       <c r="AF15" s="7"/>
     </row>
     <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="34">
         <v>7</v>
       </c>
       <c r="C16" s="35">
         <v>0.19</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="9">
         <v>9</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="G16" s="28">
         <v>22.3</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="9">
         <v>9</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="K16" s="28">
         <v>24.2</v>
       </c>
-      <c r="L16" s="58"/>
+      <c r="L16" s="43"/>
       <c r="M16" s="17">
         <v>9</v>
       </c>
@@ -3103,9 +3103,9 @@
         <v>12.179</v>
       </c>
       <c r="O16" s="19">
-        <v>22</v>
-      </c>
-      <c r="P16" s="57"/>
+        <v>21.8</v>
+      </c>
+      <c r="P16" s="42"/>
       <c r="Q16" s="17">
         <v>9</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="S16" s="20">
         <v>20.7</v>
       </c>
-      <c r="T16" s="59"/>
+      <c r="T16" s="44"/>
       <c r="U16" s="17">
         <v>9</v>
       </c>
@@ -3125,7 +3125,7 @@
       <c r="W16" s="20">
         <v>21.9</v>
       </c>
-      <c r="X16" s="58"/>
+      <c r="X16" s="43"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -3136,14 +3136,14 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="34">
         <v>1</v>
       </c>
       <c r="C17" s="35">
         <v>0.21</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="9">
         <v>10</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="G17" s="28">
         <v>23.3</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="9">
         <v>10</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="K17" s="30">
         <v>25.7</v>
       </c>
-      <c r="L17" s="58"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="17">
         <v>10</v>
       </c>
@@ -3171,9 +3171,9 @@
         <v>12.212</v>
       </c>
       <c r="O17" s="19">
-        <v>22.7</v>
-      </c>
-      <c r="P17" s="57"/>
+        <v>22.4</v>
+      </c>
+      <c r="P17" s="42"/>
       <c r="Q17" s="17">
         <v>10</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="S17" s="20">
         <v>21</v>
       </c>
-      <c r="T17" s="59"/>
+      <c r="T17" s="44"/>
       <c r="U17" s="23">
         <v>10</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="W17" s="20">
         <v>22.8</v>
       </c>
-      <c r="X17" s="58"/>
+      <c r="X17" s="43"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -3204,14 +3204,14 @@
       <c r="AF17" s="7"/>
     </row>
     <row r="18" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="34">
         <v>1</v>
       </c>
       <c r="C18" s="35">
         <v>0.23</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="9">
         <v>11</v>
       </c>
@@ -3221,11 +3221,11 @@
       <c r="G18" s="28">
         <v>24.4</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="17">
         <v>11</v>
       </c>
@@ -3233,9 +3233,9 @@
         <v>12.246</v>
       </c>
       <c r="O18" s="25">
-        <v>23.5</v>
-      </c>
-      <c r="P18" s="56"/>
+        <v>23.3</v>
+      </c>
+      <c r="P18" s="41"/>
       <c r="Q18" s="17">
         <v>11</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="S18" s="20">
         <v>21.4</v>
       </c>
-      <c r="T18" s="59"/>
+      <c r="T18" s="44"/>
       <c r="U18" s="17">
         <v>11</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="W18" s="26">
         <v>23.2</v>
       </c>
-      <c r="X18" s="58"/>
+      <c r="X18" s="43"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -3266,7 +3266,7 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="39">
         <f>SUM(B15:B18)</f>
         <v>11</v>
@@ -3275,7 +3275,7 @@
         <f>(B15*C15+B16*C16+B17*C17+C18*B18)/B19</f>
         <v>0.19181818181818186</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="9">
         <v>12</v>
       </c>
@@ -3285,11 +3285,11 @@
       <c r="G19" s="28">
         <v>25.7</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="23">
         <v>12</v>
       </c>
@@ -3297,9 +3297,9 @@
         <v>12.279</v>
       </c>
       <c r="O19" s="19">
-        <v>24.4</v>
-      </c>
-      <c r="P19" s="56"/>
+        <v>24.2</v>
+      </c>
+      <c r="P19" s="41"/>
       <c r="Q19" s="23">
         <v>12</v>
       </c>
@@ -3309,7 +3309,7 @@
       <c r="S19" s="20">
         <v>21.9</v>
       </c>
-      <c r="T19" s="59"/>
+      <c r="T19" s="44"/>
       <c r="U19" s="17">
         <v>12</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="W19" s="20">
         <v>24.8</v>
       </c>
-      <c r="X19" s="58"/>
+      <c r="X19" s="43"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -3330,12 +3330,12 @@
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="9">
         <v>13</v>
       </c>
@@ -3345,11 +3345,11 @@
       <c r="G20" s="16">
         <v>27.4</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="17">
         <v>13</v>
       </c>
@@ -3357,9 +3357,9 @@
         <v>12.311999999999999</v>
       </c>
       <c r="O20" s="25">
-        <v>25.4</v>
-      </c>
-      <c r="P20" s="57"/>
+        <v>25.1</v>
+      </c>
+      <c r="P20" s="42"/>
       <c r="Q20" s="17">
         <v>13</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="S20" s="20">
         <v>22.4</v>
       </c>
-      <c r="T20" s="59"/>
+      <c r="T20" s="44"/>
       <c r="U20" s="17">
         <v>13</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="W20" s="20">
         <v>25.9</v>
       </c>
-      <c r="X20" s="58"/>
+      <c r="X20" s="43"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -3390,26 +3390,26 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="57"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="17">
         <v>14</v>
       </c>
@@ -3419,11 +3419,11 @@
       <c r="S21" s="20">
         <v>22.9</v>
       </c>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="58"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="43"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -3434,26 +3434,26 @@
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="34">
         <v>2</v>
       </c>
       <c r="C22" s="35">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="57"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="17">
         <v>15</v>
       </c>
@@ -3463,11 +3463,11 @@
       <c r="S22" s="20">
         <v>23.4</v>
       </c>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="58"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="43"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -3478,26 +3478,26 @@
       <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="34">
         <v>5</v>
       </c>
       <c r="C23" s="35">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="57"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="42"/>
       <c r="Q23" s="23">
         <v>16</v>
       </c>
@@ -3507,11 +3507,11 @@
       <c r="S23" s="26">
         <v>24</v>
       </c>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="58"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="43"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
@@ -3522,34 +3522,34 @@
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="34">
         <v>3</v>
       </c>
       <c r="C24" s="36">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="58"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="43"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -3560,34 +3560,34 @@
       <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="34">
         <v>1</v>
       </c>
       <c r="C25" s="36">
         <v>0.375</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="58"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="43"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -3598,7 +3598,7 @@
       <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="39">
         <f>SUM(B22:B25)</f>
         <v>11</v>
@@ -3607,27 +3607,27 @@
         <f>(B22*C22+B23*C23+B24*C24+C25*B25)/B26</f>
         <v>0.28863636363636364</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="58"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="43"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -3638,30 +3638,30 @@
       <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="58"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="43"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
@@ -9235,6 +9235,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="U6:W6"/>
@@ -9251,11 +9256,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
